--- a/biology/Biologie cellulaire et moléculaire/ADN_circulaire/ADN_circulaire.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/ADN_circulaire/ADN_circulaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ADN circulaire est une molécule d'acide désoxyribonucléique fermée.
 Dans le cas d'ADN circulaire double-brin, on distingue les molécules ouvertes, dites relâchées (ou déroulées : un brin est coupé), et les molécules fermées (sans extrémités libres) qui souvent sont superenroulées.
@@ -519,10 +531,12 @@
           <t>Aspect géométrique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ADN circulaire est souvent décrit comme un ruban de Möbius avec un certain nombre de superenroulements de la molécule.
-En 1997 Chengde Mao et son laboratoire de l'université de New York réussissent à construire un nœud borroméen avec de l'ADN circulaire[1].
+En 1997 Chengde Mao et son laboratoire de l'université de New York réussissent à construire un nœud borroméen avec de l'ADN circulaire.
 </t>
         </is>
       </c>
@@ -551,7 +565,9 @@
           <t>Dans la culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Armisael Le seizième, Ange de la Matrice (Utérus) dans l'anime Evangelion a la forme d'un anneau d'ADN géant et est capable de prendre possession des corps et des esprits. 
 </t>
@@ -582,7 +598,9 @@
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Brin lourd et brin léger des ADN circulaires</t>
         </is>
